--- a/1_SRE/Part 2/Python for Project Work SRE_Part 2/ERS/ERS_Means/SA_el_ver_mean.xlsx
+++ b/1_SRE/Part 2/Python for Project Work SRE_Part 2/ERS/ERS_Means/SA_el_ver_mean.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.406602103234439</v>
+        <v>3.960532133930666</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>3.214793088535949</v>
+        <v>4.911058351329124</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.003534414074272</v>
+        <v>7.644464767994676</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>7.178553707195841</v>
+        <v>10.95935492009636</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.600763447187129</v>
+        <v>13.52589782924631</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>5.867221012033298</v>
+        <v>8.930475741412257</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>3.907181338522469</v>
+        <v>5.904998014666845</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>7.142857142857142</v>
       </c>
       <c r="C9" t="n">
-        <v>3.03310635204466</v>
+        <v>4.702756792069077</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>6.25</v>
       </c>
       <c r="C10" t="n">
-        <v>2.847923392267179</v>
+        <v>4.221944199365216</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="C11" t="n">
-        <v>2.139764622393686</v>
+        <v>3.208034295981998</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.769588208201493</v>
+        <v>2.826715501169121</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>4.545454545454546</v>
       </c>
       <c r="C13" t="n">
-        <v>1.825169006204941</v>
+        <v>2.589230535689387</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>1.636052541395858</v>
+        <v>2.240297871554386</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>3.846153846153846</v>
       </c>
       <c r="C15" t="n">
-        <v>1.405293276789153</v>
+        <v>2.01538002534835</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>3.571428571428571</v>
       </c>
       <c r="C16" t="n">
-        <v>1.284389682496462</v>
+        <v>1.83863507330977</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>1.092760458080086</v>
+        <v>1.654208894360382</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>3.125</v>
       </c>
       <c r="C18" t="n">
-        <v>1.198593083155036</v>
+        <v>1.903061395882735</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>2.941176470588235</v>
       </c>
       <c r="C19" t="n">
-        <v>1.087927921320928</v>
+        <v>1.703262968498063</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9003522359698113</v>
+        <v>1.398687864503432</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2.631578947368421</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7507668527963106</v>
+        <v>1.145321376346276</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>2.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6570721623746016</v>
+        <v>0.9706023805620522</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>2.380952380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5526868221647114</v>
+        <v>0.8274638331121645</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>2.272727272727273</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5382787802299425</v>
+        <v>0.7892751422882164</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>2.173913043478261</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5340468271471294</v>
+        <v>0.7548688480854233</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>2.083333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4982995090646255</v>
+        <v>0.694218938328396</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.464361198065982</v>
+        <v>0.6355756116682379</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.923076923076923</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4222039549297912</v>
+        <v>0.5764906742316692</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.851851851851852</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3783278793969049</v>
+        <v>0.5271661714492998</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3290931472659261</v>
+        <v>0.4807049196198408</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.724137931034483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3086927933674589</v>
+        <v>0.4482637127215371</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.290371808604186</v>
+        <v>0.4173687203858626</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.612903225806452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2805557361288603</v>
+        <v>0.4058408988618565</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.5625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2664215507011185</v>
+        <v>0.3891184504387232</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.515151515151515</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2471994749662525</v>
+        <v>0.3607707412655516</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.470588235294118</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2341787603009022</v>
+        <v>0.3395497931348372</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.428571428571428</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2291883998907198</v>
+        <v>0.3282722771734662</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0.223940002012729</v>
+        <v>0.3161028983939324</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.351351351351351</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2096367990838913</v>
+        <v>0.2974024957117894</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.315789473684211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1972267412586916</v>
+        <v>0.2790315356201242</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.282051282051282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.180576349876118</v>
+        <v>0.2601918812823903</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.25</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1637637544939126</v>
+        <v>0.2355261677882544</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.219512195121951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1501337414538975</v>
+        <v>0.2159405024546755</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.19047619047619</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1452130224693609</v>
+        <v>0.2017418414671825</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.162790697674419</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1426543162665286</v>
+        <v>0.1948646247943468</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.136363636363636</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139095568920018</v>
+        <v>0.1867265912846702</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1318872448101736</v>
+        <v>0.1753504887721143</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.08695652173913</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1251120951019594</v>
+        <v>0.1657067212505871</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.063829787234043</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115522436949725</v>
+        <v>0.1535704448120625</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1086326766625772</v>
+        <v>0.1468885564109047</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.020408163265306</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1043641017050724</v>
+        <v>0.1428533158060139</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1004109888161133</v>
+        <v>0.1365447947063708</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.9803921568627451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09550028196792384</v>
+        <v>0.1288330901365479</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.9615384615384615</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08961678450873733</v>
+        <v>0.1199564828090694</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.9433962264150942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08514569758095168</v>
+        <v>0.1125653249094914</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.9259259259259258</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08000941441785753</v>
+        <v>0.1045787878115507</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07816236019608869</v>
+        <v>0.102040580617945</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07545797970687834</v>
+        <v>0.09970227119589932</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.8771929824561403</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07209144887549683</v>
+        <v>0.09692824990842382</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0.8620689655172414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06933601042785421</v>
+        <v>0.09344722318840239</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.8474576271186441</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06741172667221372</v>
+        <v>0.08959175997874935</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06614585761944618</v>
+        <v>0.08617623269214794</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.819672131147541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06520280865728878</v>
+        <v>0.08328323034714086</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06460294014938658</v>
+        <v>0.08033892408680367</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.7936507936507936</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06417091575464527</v>
+        <v>0.0774025868181675</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.78125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06363166057452714</v>
+        <v>0.07452231480095567</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06335287984828458</v>
+        <v>0.07233026522538812</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.7575757575757576</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06323275778915829</v>
+        <v>0.0704061718252683</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0625504976050015</v>
+        <v>0.06848454606655215</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.7352941176470588</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06163558989932038</v>
+        <v>0.06656712943569966</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.7246376811594202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06013807730556671</v>
+        <v>0.06475629461947102</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05830068419592065</v>
+        <v>0.06312488918355577</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.7042253521126761</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05614012298486458</v>
+        <v>0.06160324457110287</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05436631037422008</v>
+        <v>0.06002206475252878</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.684931506849315</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0527673504572351</v>
+        <v>0.05838427898003954</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.05080333189536528</v>
+        <v>0.05670379340404485</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04866209595274816</v>
+        <v>0.05499579292247309</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04667906823312491</v>
+        <v>0.05346649920916007</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.6493506493506493</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0454945261913017</v>
+        <v>0.05228179347178732</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.641025641025641</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04459653555017148</v>
+        <v>0.05121201514985737</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.6329113924050632</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04350050230486045</v>
+        <v>0.0501140119156967</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04229443806924107</v>
+        <v>0.04899704327306567</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.6172839506172839</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0410248665493603</v>
+        <v>0.04786578101397391</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.6097560975609756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04011489242792236</v>
+        <v>0.04685413993023365</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.6024096385542168</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03938958497359824</v>
+        <v>0.04612532936190118</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.5952380952380952</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03863584653611299</v>
+        <v>0.04537357673141468</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03798126424733063</v>
+        <v>0.04477570821392816</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.5813953488372093</v>
       </c>
       <c r="C88" t="n">
-        <v>0.03749541464875419</v>
+        <v>0.04445276062727531</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.5747126436781609</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03722596515186778</v>
+        <v>0.04398793847764929</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.5681818181818182</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03680031180188914</v>
+        <v>0.04339269673376595</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.5617977528089888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.03620669842687016</v>
+        <v>0.04268350090114396</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0354481068877778</v>
+        <v>0.04187249822651001</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.5494505494505494</v>
       </c>
       <c r="C93" t="n">
-        <v>0.03450491092520718</v>
+        <v>0.04097940408537926</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0333766561380438</v>
+        <v>0.04009299934172938</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.5376344086021505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03210755040234775</v>
+        <v>0.03915957027046673</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03106028362581502</v>
+        <v>0.03819202870638926</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="C97" t="n">
-        <v>0.03045241008888607</v>
+        <v>0.03720243048665715</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02982074015843885</v>
+        <v>0.03620146177998621</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02915627272868387</v>
+        <v>0.03519842640232092</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0284535764392115</v>
+        <v>0.03420129941994511</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02770958460386153</v>
+        <v>0.03321682353265495</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02694329891898508</v>
+        <v>0.03225062871405279</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.495049504950495</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02625165288563622</v>
+        <v>0.03130736001174846</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.4901960784313725</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02571830956108274</v>
+        <v>0.03068916298414373</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.4854368932038835</v>
       </c>
       <c r="C105" t="n">
-        <v>0.02512074695121599</v>
+        <v>0.03007730550541183</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.4807692307692307</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02446266180759553</v>
+        <v>0.02946767054829842</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02375666227432151</v>
+        <v>0.02886175797226855</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.4716981132075471</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02301699312662275</v>
+        <v>0.02826160815876044</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.4672897196261682</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02232568772589631</v>
+        <v>0.02776350165421088</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.4629629629629629</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02180915717596403</v>
+        <v>0.02752606310284971</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.4587155963302752</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02129100395387346</v>
+        <v>0.02733187482253236</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0208125654556468</v>
+        <v>0.02718372562004005</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.4504504504504504</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02036643990593498</v>
+        <v>0.02702936984687046</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0199182203324572</v>
+        <v>0.02681178168137091</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.4424778761061947</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01948238042760838</v>
+        <v>0.02654596891032191</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.4385964912280702</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01921373065066904</v>
+        <v>0.0262393825556907</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.4347826086956521</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01897150072940011</v>
+        <v>0.0259060858352252</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.4310344827586207</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01870485030000718</v>
+        <v>0.02555853026182999</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.4273504273504274</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01842502534547315</v>
+        <v>0.02520677870534052</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.4237288135593221</v>
       </c>
       <c r="C120" t="n">
-        <v>0.01821934811167766</v>
+        <v>0.02497033338953838</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.4201680672268908</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01799966564744688</v>
+        <v>0.02471837362964578</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01776258991550323</v>
+        <v>0.02444352666142443</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.4132231404958678</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01751220453832065</v>
+        <v>0.02414669697541743</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.4098360655737705</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01737425390359017</v>
+        <v>0.02382956248362165</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.4065040650406504</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0173249731896491</v>
+        <v>0.02349153617222781</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.4032258064516129</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0173986007678133</v>
+        <v>0.02342117802615601</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.4</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01750474032606188</v>
+        <v>0.02343004494653976</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.3968253968253968</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01762651372279147</v>
+        <v>0.02344937526945295</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.3937007874015748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0177550168328509</v>
+        <v>0.02346738447038464</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.390625</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01791128838001577</v>
+        <v>0.02351840779975402</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0.3875968992248062</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01806664596824644</v>
+        <v>0.0235689031905129</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01820507058661048</v>
+        <v>0.02359814012033245</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.3816793893129771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01832810619051038</v>
+        <v>0.02361118844630066</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.3787878787878788</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01843067903645053</v>
+        <v>0.02360423625855989</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.3759398496240601</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01850020841134392</v>
+        <v>0.02356064648418178</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.3731343283582089</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01853294150090421</v>
+        <v>0.02347585009091114</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.3703703703703703</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01852677316000058</v>
+        <v>0.02336114648075043</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.3676470588235294</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01848310922105941</v>
+        <v>0.02324241918956336</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.364963503649635</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01840029813653835</v>
+        <v>0.02308669299171997</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.3623188405797101</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01827893840676452</v>
+        <v>0.02296437725903342</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.3597122302158273</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0181212265008391</v>
+        <v>0.02278475631120327</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.3571428571428571</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01795161659660279</v>
+        <v>0.02258193571675746</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.3546099290780142</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01788671680862737</v>
+        <v>0.02251819497290791</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.3521126760563381</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01780001887191563</v>
+        <v>0.02241647439049498</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.3496503496503497</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01769368219428596</v>
+        <v>0.02228025440789391</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.3472222222222222</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0175703213568228</v>
+        <v>0.02211261569809811</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.3448275862068966</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01743265598059619</v>
+        <v>0.02191871472532829</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.3424657534246575</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0173250827921992</v>
+        <v>0.02170163198824626</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.3401360544217687</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01720243695496502</v>
+        <v>0.02146685709891318</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.3378378378378378</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01709134340895442</v>
+        <v>0.02131199122441458</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.3355704697986577</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01700778516977074</v>
+        <v>0.02120221920488328</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01696735981409216</v>
+        <v>0.0210929548648276</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.3311258278145696</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01697974144879833</v>
+        <v>0.02101370656334057</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.3289473684210527</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01698132399003231</v>
+        <v>0.02093793648393235</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.326797385620915</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01697546201734203</v>
+        <v>0.02087321432437753</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.3246753246753247</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01696289159208932</v>
+        <v>0.02080438728947874</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.3225806451612903</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01694578491982381</v>
+        <v>0.02073247695145448</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.3205128205128205</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01692705690875235</v>
+        <v>0.02065918593586144</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.3184713375796178</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01693579260152981</v>
+        <v>0.02063429793382708</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.3164556962025316</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01700958537830074</v>
+        <v>0.02070104782271981</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.3144654088050314</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01705543695068672</v>
+        <v>0.02072736387851524</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.3125</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01711542008106625</v>
+        <v>0.0207592090388733</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.3105590062111801</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01722549470534872</v>
+        <v>0.02081746662133714</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.308641975308642</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01734254264313297</v>
+        <v>0.02088512619850149</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.3067484662576687</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01744386554721333</v>
+        <v>0.02093178872641086</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.3048780487804878</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0175289127660882</v>
+        <v>0.02095696133018823</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01759892519119656</v>
+        <v>0.02096118482225958</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.3012048192771084</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01765156183982708</v>
+        <v>0.02098991003814615</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.2994011976047904</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01768566619856202</v>
+        <v>0.02103080028379766</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.2976190476190476</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01770066653223585</v>
+        <v>0.02104751132234736</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.2958579881656805</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01769667289793478</v>
+        <v>0.02103866698650355</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01771542429176527</v>
+        <v>0.02107966518610174</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.2923976608187134</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01772786088869906</v>
+        <v>0.02112266165519991</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.2906976744186047</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01779713036976783</v>
+        <v>0.02119830087122453</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.2890173410404624</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01788191544928785</v>
+        <v>0.02128409907740815</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.2873563218390804</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0179429148481011</v>
+        <v>0.02134160176459474</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01797946333987844</v>
+        <v>0.02137068542251382</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01799152441102071</v>
+        <v>0.02137016883486063</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.2824858757062147</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01797783897319373</v>
+        <v>0.02133908521711122</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01794122253112353</v>
+        <v>0.02131658471490827</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.2793296089385475</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01788198560522128</v>
+        <v>0.02127411628859894</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01779861570409539</v>
+        <v>0.02120071877445327</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.2762430939226519</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01769094678362982</v>
+        <v>0.02109591561990055</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.2747252747252747</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01755757262605492</v>
+        <v>0.02095775883116662</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.273224043715847</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01750396053935725</v>
+        <v>0.02093356441236507</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.2717391304347826</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01744994504974295</v>
+        <v>0.02091072972528884</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.2702702702702702</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0173869042209015</v>
+        <v>0.02087652586546152</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.2688172043010753</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01732213046131446</v>
+        <v>0.02082454673274391</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.267379679144385</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01724636949821961</v>
+        <v>0.02076220741707008</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.2659574468085106</v>
       </c>
       <c r="C190" t="n">
-        <v>0.01714923830481999</v>
+        <v>0.02067131586122265</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.2645502645502645</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01703161841153657</v>
+        <v>0.02055340343596864</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01696792426258383</v>
+        <v>0.02051223495893183</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.2617801047120419</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01698245692048492</v>
+        <v>0.02055777842997998</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01700438667931418</v>
+        <v>0.02058764520260549</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.2590673575129534</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0170144097253031</v>
+        <v>0.02060782329112171</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.2577319587628866</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01700595603095289</v>
+        <v>0.02063392628618343</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.2564102564102564</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01698029080043182</v>
+        <v>0.02063150187933358</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.2551020408163265</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01693740518584441</v>
+        <v>0.02060071966755102</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.2538071065989848</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01687520867937113</v>
+        <v>0.0205419962326536</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01679426093423783</v>
+        <v>0.02045573561549735</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.2512562814070352</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01669517941868852</v>
+        <v>0.0203424946606079</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.25</v>
       </c>
       <c r="C202" t="n">
-        <v>0.01657863285567984</v>
+        <v>0.02020299662863555</v>
       </c>
     </row>
   </sheetData>
